--- a/Output_testing/R1_201907/Country/HKD/MN/UGANDA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/UGANDA_201907_HKD_MN.xlsx
@@ -544,17 +544,25 @@
       <c r="C7" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.199043</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.27338</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.24799</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.253483</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>37.34720638254046</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/UGANDA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/UGANDA_201907_HKD_MN.xlsx
@@ -818,136 +818,465 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>419.010952</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>81.41692446318673</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>368.230183</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>87.90172177504462</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>83.49205499999999</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>63.1326354988363</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>50.643642</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>55.74999107227661</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-7.482716140611412</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>55.632293</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>10.80976565236622</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>23.101703</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.514701302026927</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>22.084293</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>16.69906939311174</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>22.855131</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>25.15959158714755</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>87.71054485352872</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>4.093795</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.7954546216318745</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>6.929989</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.654285805740481</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>4.119503</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>3.11496802103341</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2.693304</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.964867217782774</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-7.133468588932857</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.465534</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.2847640864915433</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>3.643284</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.869703113162431</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2.807165</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.122641785857239</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.971341</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.170109392022257</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-22.91644508815175</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.08267264661936288</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.1665824250978148</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.424464</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.568091317026122</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>0.598702</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.1163322230058531</v>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>4.960597</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.750962438972437</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.154172</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.270546038056892</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-65.94816395315355</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.477241</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.4813462331030172</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.06702016574494832</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1.095869</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.8286428946020582</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.962317</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.059346485363355</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>171.2578327380969</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>0.939074</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1824690179538377</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.646177</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.1542515347565439</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.477965</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.117565325527532</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.939155</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.033849083473972</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>38.3046559300668</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.630219</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.4765409883783687</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.903114</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.9941741045647549</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>75.47404069784388</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.516581</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.3906134539223445</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.8942600000000001</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.9844273643726902</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>170.2949408486123</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>30.233845</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>5.874659511517246</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>15.419293</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>3.680802025003727</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>10.844095</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>8.199777774660753</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>6.399728</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>7.045006337913032</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>11.6155768250402</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -979,136 +1308,587 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>10.03752957903568</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>15.77803789596898</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>82.70212508568893</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>65.85175337202101</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>5.275671993844533</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>10.62280310711172</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>13.18207623478344</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>9.76475739990453</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>8.467014665172853</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.190796693247494</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>10.34638493487641</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>5.914795075014893</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>50.35098275170478</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>4.092187641774793</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>68.31337952100802</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>73.09715414441436</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>6.951489979434655</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>3.753703404173061</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-27.03780384939806</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>5.360670129490087</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.127075865096203</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.4462652717828664</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1140,136 +1920,465 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>419.010952</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>81.44842506986042</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>368.230183</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>87.95912359085334</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>83.49205499999999</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>63.25124295784745</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>50.643642</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>55.90599195945517</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-7.482716140611412</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>55.632293</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>10.81394800361929</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>23.101703</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.518302526917484</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>22.084293</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>16.73044198151896</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>22.855131</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>25.22999372593098</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>87.71054485352872</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>4.093795</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.7957623869193501</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>6.929989</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.655366091850907</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>4.119503</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.120820120172889</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2.693304</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.973163576355122</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-7.133468588932857</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1.465534</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.2848742631107475</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>3.643284</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.8702710489992032</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2.807165</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.126629598921308</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.971341</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.176181841253524</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-22.91644508815175</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.08272663373062572</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.1668953839660871</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.424464</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.572479185650459</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>0.598702</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.1163772325124704</v>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>4.960597</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.758009382604958</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.154172</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.274101308745297</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-65.94816395315355</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.477241</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.4815324683171672</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.06706393143157965</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1.095869</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.8301996683274033</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.962317</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.06231077268193</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>171.2578327380969</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>0.939074</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1825396161102111</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.646177</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.154352264503442</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.477965</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.11966489863251</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.939155</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.036742023385327</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>38.3046559300668</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>0.630219</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.4774362672670072</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.903114</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.996956025051899</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>75.47404069784388</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.516581</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3913473005115012</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.8942600000000001</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.987182011310766</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>170.2949408486123</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>30.034802</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>5.838241956465839</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>15.145913</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>3.617903406531214</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>10.596105</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>8.027312440229936</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>6.146245</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>6.784897570179521</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>10.70022938853259</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1301,136 +2410,535 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>318.393807</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>91.36817134213877</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>424.930169</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>93.14384564444686</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>604.5437020000001</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>96.34731637328993</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>294.235282</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>97.98448079299382</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-16.34480279716713</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>16.13766</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>4.630958427973378</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>23.45581</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>5.141466776169223</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>9.050573</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>1.442407583282632</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>4.039052</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>1.345061035596347</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-38.10241520071095</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>4.126843</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.184263292929268</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.483503</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.3251808991822226</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>8.772587</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.39810440883761</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.12125</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.3733919954886454</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-84.45872709178258</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2.348356</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.6738981370336127</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>4.649933</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.019256040653164</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1.1742</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.1871345586948436</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>0.53748</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.1789883877237344</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-47.27486756915833</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.1037185556859938</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-37.61974218472819</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MINERAL MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>550</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>2.426112</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.3866542313611517</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>7.416654</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>2.128326928976225</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1.682084</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>0.368709458369838</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1.44527</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.2303355166452875</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
